--- a/多介质模型文献阅读/Excel文献拆解/多介质模型文献整理-P2.xlsx
+++ b/多介质模型文献阅读/Excel文献拆解/多介质模型文献整理-P2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\python learning\GirKarken\ReadPaper by Excel\多介质模型文献阅读\Excel文献拆解\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\python learning\GirKarken\ReadPaper in Excel\多介质模型文献阅读\Excel文献拆解\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -516,10 +516,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>python</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1123,11 +1119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>♥♥♥♥♥
-♥♥♥♥♥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1141,7 +1132,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>♥♥♥♥♥</t>
+    <t>❤❤❤❤❤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>❤❤❤❤❤
+❤❤❤❤❤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python
+(https://github.com/klaris-ak/ChemFate)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1149,7 +1150,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1252,6 +1253,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1313,7 +1321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1370,6 +1378,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1931,8 +1942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1953,43 +1964,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="150" customHeight="1" x14ac:dyDescent="0.2">
@@ -1997,25 +2008,25 @@
         <v>14</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" s="15">
         <v>2019</v>
       </c>
       <c r="D2" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>77</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>78</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>60</v>
@@ -2028,15 +2039,15 @@
         <v>60</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="283.5" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>83</v>
+      <c r="B3" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="C3" s="15">
         <v>2020</v>
@@ -2054,17 +2065,17 @@
         <v>59</v>
       </c>
       <c r="H3" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="18" t="s">
         <v>80</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>81</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="M3" s="16"/>
     </row>

--- a/多介质模型文献阅读/Excel文献拆解/多介质模型文献整理-P2.xlsx
+++ b/多介质模型文献阅读/Excel文献拆解/多介质模型文献整理-P2.xlsx
@@ -20,7 +20,6 @@
     <sheet name="中文综述推荐论文" sheetId="19" r:id="rId6"/>
     <sheet name="英文综述推荐论文" sheetId="18" r:id="rId7"/>
     <sheet name="英文论文推荐论文" sheetId="20" r:id="rId8"/>
-    <sheet name="搜索技巧" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -196,59 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
-  <si>
-    <t>谷歌学术搜索策略</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A和B的并集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A和B的交集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A OR B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A -B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A中不出现B的结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索作者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>author: XXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intitle:"A B C D"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索指定网址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XXX site:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1261,7 +1208,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1289,6 +1236,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1321,7 +1274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1377,11 +1330,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1942,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1964,124 +1929,124 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="22">
+        <v>2019</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="F2" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="G2" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="H2" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="I2" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="24" t="s">
         <v>65</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="15">
-        <v>2019</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="283.5" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>84</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>71</v>
       </c>
       <c r="C3" s="15">
         <v>2020</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="18" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="15"/>
@@ -2184,7 +2149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -2204,120 +2169,120 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="150" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="5" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="150" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="5" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="150" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="5" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="150" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="5" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -2373,7 +2338,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -2392,34 +2357,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.2">
@@ -2429,12 +2394,12 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="4" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="4" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J2" s="2"/>
     </row>
@@ -2592,7 +2557,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2600,80 +2565,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="1"/>
-    <col min="4" max="4" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>